--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95007AE6-A887-40C0-8FAB-0A499391B69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC09BEF-C518-43D0-988F-AC0ED94A520D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3F232AD7-FE7E-411D-82FB-EBE0D4894562}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{3F232AD7-FE7E-411D-82FB-EBE0D4894562}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>No:</t>
   </si>
   <si>
-    <t>2025-03-0001</t>
-  </si>
-  <si>
     <t>TESDA (REGION) - (DIVISION)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>PROCUREMENT OF STARTER TOOLKITS FOR  THE IMPLEMENTATION OF FY 2024 SPECIAL TRAINING FOR EMPLOYMENT PROGRAM (STEP)</t>
+  </si>
+  <si>
+    <t>2025-03-1001</t>
   </si>
 </sst>
 </file>
@@ -555,6 +555,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,15 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1276,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,12 +1293,12 @@
       <c r="D1" s="2"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
@@ -1307,49 +1307,49 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:5" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="A12" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:5" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -1368,7 +1368,7 @@
     <row r="14" spans="1:5" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
@@ -1376,7 +1376,7 @@
     <row r="15" spans="1:5" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
@@ -1468,71 +1468,76 @@
       <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
     </row>
     <row r="36" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
     </row>
     <row r="37" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A10:D11"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
@@ -1542,11 +1547,6 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
